--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="96">
   <si>
     <t>USN</t>
   </si>
@@ -148,27 +148,48 @@
     <t>ABHIJNA</t>
   </si>
   <si>
+    <t>ABHINAVA KRISHNA K S</t>
+  </si>
+  <si>
     <t>4CB21CS001</t>
   </si>
   <si>
+    <t>4CB21CS002</t>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
     <t>72</t>
   </si>
   <si>
+    <t>79</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>65</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>B+</t>
   </si>
   <si>
@@ -178,46 +199,70 @@
     <t>24</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
-    <t>30</t>
+    <t>78</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>75</t>
   </si>
   <si>
-    <t>44</t>
+    <t>82</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
+    <t>47</t>
+  </si>
+  <si>
     <t>84</t>
   </si>
   <si>
-    <t>A+</t>
+    <t>95</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>47</t>
+    <t>49</t>
   </si>
   <si>
     <t>88</t>
   </si>
   <si>
+    <t>97</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>77</t>
+  </si>
+  <si>
+    <t>74</t>
   </si>
   <si>
     <t>21CIV57</t>
@@ -599,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,56 +658,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
@@ -676,124 +721,124 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AQ2" s="1"/>
     </row>
@@ -802,130 +847,261 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L3">
         <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q3">
         <v>7</v>
       </c>
       <c r="R3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" t="s">
         <v>55</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>56</v>
       </c>
-      <c r="T3" t="s">
-        <v>50</v>
-      </c>
       <c r="U3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V3">
         <v>7</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="Z3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AA3">
         <v>8</v>
       </c>
       <c r="AB3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AC3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AD3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AF3">
         <v>9</v>
       </c>
       <c r="AG3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AI3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AK3">
         <v>9</v>
       </c>
       <c r="AL3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO3" t="s">
         <v>52</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>48</v>
       </c>
       <c r="AP3">
         <v>8</v>
       </c>
       <c r="AQ3">
         <v>7.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="R4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" t="s">
+        <v>62</v>
+      </c>
+      <c r="U4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4">
+        <v>8</v>
+      </c>
+      <c r="W4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA4">
+        <v>9</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4">
+        <v>10</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK4">
+        <v>10</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP4">
+        <v>8</v>
+      </c>
+      <c r="AQ4">
+        <v>8.42</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
   <si>
     <t>USN</t>
   </si>
@@ -145,124 +145,61 @@
     <t>SGPA</t>
   </si>
   <si>
-    <t>ABHIJNA</t>
-  </si>
-  <si>
-    <t>ABHINAVA KRISHNA K S</t>
-  </si>
-  <si>
-    <t>4CB21CS001</t>
-  </si>
-  <si>
-    <t>4CB21CS002</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>79</t>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>KUNAL SACHIN KITTUR</t>
+  </si>
+  <si>
+    <t>LALITH G SALIAN</t>
+  </si>
+  <si>
+    <t>LASYA D M</t>
+  </si>
+  <si>
+    <t>LAVANYA LAXMI NAIK M</t>
+  </si>
+  <si>
+    <t>4CB21CS047</t>
+  </si>
+  <si>
+    <t>4CB21CS048</t>
+  </si>
+  <si>
+    <t>4CB21CS049</t>
+  </si>
+  <si>
+    <t>4CB21CS050</t>
+  </si>
+  <si>
+    <t>A+</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>67</t>
+    <t>F</t>
   </si>
   <si>
     <t>B+</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>A+</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>95</t>
+    <t>B</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>74</t>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Distinction</t>
+  </si>
+  <si>
+    <t>First Class</t>
   </si>
   <si>
     <t>21CIV57</t>
@@ -644,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AS6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,56 +595,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
@@ -716,392 +653,686 @@
       <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>39</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>38</v>
+      </c>
+      <c r="N3">
+        <v>15</v>
+      </c>
+      <c r="O3">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>37</v>
+      </c>
+      <c r="S3">
+        <v>20</v>
+      </c>
+      <c r="T3">
+        <v>57</v>
+      </c>
+      <c r="U3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3">
+        <v>6</v>
+      </c>
+      <c r="W3">
+        <v>45</v>
+      </c>
+      <c r="X3">
+        <v>22</v>
+      </c>
+      <c r="Y3">
+        <v>67</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3">
+        <v>7</v>
+      </c>
+      <c r="AB3">
+        <v>49</v>
+      </c>
+      <c r="AC3">
+        <v>45</v>
+      </c>
+      <c r="AD3">
         <v>94</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ2" s="1"/>
-    </row>
-    <row r="3" spans="1:43">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="AE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3">
+        <v>10</v>
+      </c>
+      <c r="AG3">
         <v>47</v>
       </c>
-      <c r="D3" t="s">
+      <c r="AH3">
         <v>49</v>
       </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="AI3">
+        <v>96</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK3">
+        <v>10</v>
+      </c>
+      <c r="AL3">
+        <v>46</v>
+      </c>
+      <c r="AM3">
+        <v>31</v>
+      </c>
+      <c r="AN3">
+        <v>77</v>
+      </c>
+      <c r="AO3" t="s">
         <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3">
-        <v>7</v>
-      </c>
-      <c r="R3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3">
-        <v>7</v>
-      </c>
-      <c r="W3" t="s">
-        <v>63</v>
-      </c>
-      <c r="X3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3">
-        <v>8</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF3">
-        <v>9</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK3">
-        <v>9</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>52</v>
       </c>
       <c r="AP3">
         <v>8</v>
       </c>
       <c r="AQ3">
-        <v>7.84</v>
+        <v>4.67</v>
+      </c>
+      <c r="AR3">
+        <v>39.17</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:45">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G4">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
+      <c r="H4">
+        <v>44</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L4">
         <v>7</v>
       </c>
-      <c r="M4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" t="s">
-        <v>51</v>
+      <c r="M4">
+        <v>46</v>
+      </c>
+      <c r="N4">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q4">
         <v>8</v>
       </c>
-      <c r="R4" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" t="s">
-        <v>61</v>
-      </c>
-      <c r="T4" t="s">
-        <v>62</v>
+      <c r="R4">
+        <v>42</v>
+      </c>
+      <c r="S4">
+        <v>30</v>
+      </c>
+      <c r="T4">
+        <v>72</v>
       </c>
       <c r="U4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V4">
         <v>8</v>
       </c>
-      <c r="W4" t="s">
-        <v>64</v>
-      </c>
-      <c r="X4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>67</v>
+      <c r="W4">
+        <v>47</v>
+      </c>
+      <c r="X4">
+        <v>28</v>
+      </c>
+      <c r="Y4">
+        <v>75</v>
       </c>
       <c r="Z4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="AA4">
-        <v>9</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>73</v>
+        <v>8</v>
+      </c>
+      <c r="AB4">
+        <v>48</v>
+      </c>
+      <c r="AC4">
+        <v>46</v>
+      </c>
+      <c r="AD4">
+        <v>94</v>
       </c>
       <c r="AE4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="AF4">
         <v>10</v>
       </c>
-      <c r="AG4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>78</v>
+      <c r="AG4">
+        <v>46</v>
+      </c>
+      <c r="AH4">
+        <v>49</v>
+      </c>
+      <c r="AI4">
+        <v>95</v>
       </c>
       <c r="AJ4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="AK4">
         <v>10</v>
       </c>
-      <c r="AL4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>82</v>
+      <c r="AL4">
+        <v>47</v>
+      </c>
+      <c r="AM4">
+        <v>23</v>
+      </c>
+      <c r="AN4">
+        <v>70</v>
       </c>
       <c r="AO4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AP4">
         <v>8</v>
       </c>
       <c r="AQ4">
-        <v>8.42</v>
+        <v>8.06</v>
+      </c>
+      <c r="AR4">
+        <v>73.06</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>36</v>
+      </c>
+      <c r="I5">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>38</v>
+      </c>
+      <c r="N5">
+        <v>35</v>
+      </c>
+      <c r="O5">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>30</v>
+      </c>
+      <c r="S5">
+        <v>25</v>
+      </c>
+      <c r="T5">
+        <v>55</v>
+      </c>
+      <c r="U5" t="s">
+        <v>57</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>42</v>
+      </c>
+      <c r="X5">
+        <v>38</v>
+      </c>
+      <c r="Y5">
+        <v>80</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA5">
+        <v>9</v>
+      </c>
+      <c r="AB5">
+        <v>36</v>
+      </c>
+      <c r="AC5">
+        <v>37</v>
+      </c>
+      <c r="AD5">
+        <v>73</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF5">
+        <v>8</v>
+      </c>
+      <c r="AG5">
+        <v>38</v>
+      </c>
+      <c r="AH5">
+        <v>44</v>
+      </c>
+      <c r="AI5">
+        <v>82</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK5">
+        <v>9</v>
+      </c>
+      <c r="AL5">
+        <v>38</v>
+      </c>
+      <c r="AM5">
+        <v>33</v>
+      </c>
+      <c r="AN5">
+        <v>71</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP5">
+        <v>8</v>
+      </c>
+      <c r="AQ5">
+        <v>7.56</v>
+      </c>
+      <c r="AR5">
+        <v>68.06</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>46</v>
+      </c>
+      <c r="I6">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <v>48</v>
+      </c>
+      <c r="N6">
+        <v>29</v>
+      </c>
+      <c r="O6">
+        <v>77</v>
+      </c>
+      <c r="P6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6">
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <v>44</v>
+      </c>
+      <c r="S6">
+        <v>33</v>
+      </c>
+      <c r="T6">
+        <v>77</v>
+      </c>
+      <c r="U6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6">
+        <v>8</v>
+      </c>
+      <c r="W6">
+        <v>48</v>
+      </c>
+      <c r="X6">
+        <v>41</v>
+      </c>
+      <c r="Y6">
+        <v>89</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA6">
+        <v>9</v>
+      </c>
+      <c r="AB6">
+        <v>48</v>
+      </c>
+      <c r="AC6">
+        <v>48</v>
+      </c>
+      <c r="AD6">
+        <v>96</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF6">
+        <v>10</v>
+      </c>
+      <c r="AG6">
+        <v>48</v>
+      </c>
+      <c r="AH6">
+        <v>50</v>
+      </c>
+      <c r="AI6">
+        <v>98</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK6">
+        <v>10</v>
+      </c>
+      <c r="AL6">
+        <v>41</v>
+      </c>
+      <c r="AM6">
+        <v>20</v>
+      </c>
+      <c r="AN6">
+        <v>61</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP6">
+        <v>7</v>
+      </c>
+      <c r="AQ6">
+        <v>8.5</v>
+      </c>
+      <c r="AR6">
+        <v>77.5</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="71">
   <si>
     <t>USN</t>
   </si>
@@ -127,6 +127,21 @@
     <t>BCSL305 Grade Point</t>
   </si>
   <si>
+    <t>BNSK359/BPEK359/BYOK359 CIE</t>
+  </si>
+  <si>
+    <t>BNSK359/BPEK359/BYOK359 SEE</t>
+  </si>
+  <si>
+    <t>BNSK359/BPEK359/BYOK359 Total</t>
+  </si>
+  <si>
+    <t>BNSK359/BPEK359/BYOK359 Grade</t>
+  </si>
+  <si>
+    <t>BNSK359/BPEK359/BYOK359 Grade Point</t>
+  </si>
+  <si>
     <t>BSCK307 CIE</t>
   </si>
   <si>
@@ -142,21 +157,6 @@
     <t>BSCK307 Grade Point</t>
   </si>
   <si>
-    <t>BNSK359/BPEK359/BYOK359 BYOK359 CIE</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359 BYOK359 SEE</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359 BYOK359 Total</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359 BYOK359 Grade</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359 BYOK359 Grade Point</t>
-  </si>
-  <si>
     <t>SGPA</t>
   </si>
   <si>
@@ -166,49 +166,25 @@
     <t>Class</t>
   </si>
   <si>
-    <t>BNSK359/BPEK359/BYOK359 BPEK359 CIE</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359 BPEK359 SEE</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359 BPEK359 Total</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359 BPEK359 Grade</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359 BPEK359 Grade Point</t>
-  </si>
-  <si>
-    <t>ADITHI J RAO</t>
-  </si>
-  <si>
-    <t>AKARSH RAI B</t>
-  </si>
-  <si>
-    <t>4CB22CS003</t>
-  </si>
-  <si>
-    <t>4CB22CS004</t>
+    <t>ABHIJNA NARAYAN NAYAK</t>
+  </si>
+  <si>
+    <t>4CB22CS002</t>
+  </si>
+  <si>
+    <t>B+</t>
   </si>
   <si>
     <t>A+</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Distinction</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>BCS301</t>
@@ -282,7 +258,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -290,32 +266,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC4"/>
+  <dimension ref="A1:AX3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:50">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,63 +583,63 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
@@ -697,465 +655,298 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:50">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
-      <c r="AY2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:50">
+      <c r="A3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="C3">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>39</v>
+      </c>
+      <c r="I3">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>61</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>43</v>
+      </c>
+      <c r="N3">
+        <v>18</v>
+      </c>
+      <c r="O3">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>37</v>
+      </c>
+      <c r="S3">
+        <v>27</v>
+      </c>
+      <c r="T3">
+        <v>64</v>
+      </c>
+      <c r="U3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>41</v>
+      </c>
+      <c r="X3">
+        <v>27</v>
+      </c>
+      <c r="Y3">
+        <v>68</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3">
+        <v>7</v>
+      </c>
+      <c r="AB3">
+        <v>47</v>
+      </c>
+      <c r="AC3">
+        <v>38</v>
+      </c>
+      <c r="AD3">
+        <v>85</v>
+      </c>
+      <c r="AE3" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="AF3">
+        <v>9</v>
+      </c>
+      <c r="AG3">
+        <v>38</v>
+      </c>
+      <c r="AH3">
+        <v>39</v>
+      </c>
+      <c r="AI3">
+        <v>77</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3">
-        <v>42</v>
-      </c>
-      <c r="D3">
-        <v>42</v>
-      </c>
-      <c r="E3">
-        <v>84</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
-      </c>
-      <c r="H3">
-        <v>48</v>
-      </c>
-      <c r="I3">
-        <v>24</v>
-      </c>
-      <c r="J3">
-        <v>72</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3">
-        <v>8</v>
-      </c>
-      <c r="M3">
-        <v>47</v>
-      </c>
-      <c r="N3">
-        <v>39</v>
-      </c>
-      <c r="O3">
-        <v>86</v>
-      </c>
-      <c r="P3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3">
-        <v>9</v>
-      </c>
-      <c r="R3">
-        <v>43</v>
-      </c>
-      <c r="S3">
-        <v>37</v>
-      </c>
-      <c r="T3">
-        <v>80</v>
-      </c>
-      <c r="U3" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3">
-        <v>9</v>
-      </c>
-      <c r="W3">
-        <v>45</v>
-      </c>
-      <c r="X3">
-        <v>31</v>
-      </c>
-      <c r="Y3">
-        <v>76</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA3">
-        <v>8</v>
-      </c>
-      <c r="AB3">
-        <v>46</v>
-      </c>
-      <c r="AC3">
-        <v>47</v>
-      </c>
-      <c r="AD3">
-        <v>93</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF3">
-        <v>10</v>
-      </c>
-      <c r="AG3">
-        <v>36</v>
-      </c>
-      <c r="AH3">
-        <v>38</v>
-      </c>
-      <c r="AI3">
-        <v>74</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>61</v>
       </c>
       <c r="AK3">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AO3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AP3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AR3">
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AT3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AU3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>8.779999999999999</v>
+        <v>6.16</v>
       </c>
       <c r="AW3">
-        <v>80.28</v>
+        <v>54.08</v>
       </c>
       <c r="AX3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:55">
-      <c r="A4" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4">
-        <v>34</v>
-      </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>46</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4">
-        <v>7</v>
-      </c>
-      <c r="M4">
-        <v>46</v>
-      </c>
-      <c r="N4">
-        <v>28</v>
-      </c>
-      <c r="O4">
-        <v>74</v>
-      </c>
-      <c r="P4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4">
-        <v>8</v>
-      </c>
-      <c r="R4">
-        <v>43</v>
-      </c>
-      <c r="S4">
-        <v>35</v>
-      </c>
-      <c r="T4">
-        <v>78</v>
-      </c>
-      <c r="U4" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4">
-        <v>8</v>
-      </c>
-      <c r="W4">
-        <v>41</v>
-      </c>
-      <c r="X4">
-        <v>27</v>
-      </c>
-      <c r="Y4">
-        <v>68</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA4">
-        <v>7</v>
-      </c>
-      <c r="AB4">
-        <v>40</v>
-      </c>
-      <c r="AC4">
-        <v>39</v>
-      </c>
-      <c r="AD4">
-        <v>79</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF4">
-        <v>8</v>
-      </c>
-      <c r="AG4">
-        <v>36</v>
-      </c>
-      <c r="AH4">
-        <v>44</v>
-      </c>
-      <c r="AI4">
-        <v>80</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK4">
-        <v>9</v>
-      </c>
-      <c r="AL4">
-        <v>90</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>90</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP4">
-        <v>10</v>
-      </c>
-      <c r="AV4">
-        <v>8.06</v>
-      </c>
-      <c r="AW4">
-        <v>73.06</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY4">
-        <v>87</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>87</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC4">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="75">
   <si>
     <t>USN</t>
   </si>
@@ -127,21 +127,6 @@
     <t>BCSL305 Grade Point</t>
   </si>
   <si>
-    <t>BNSK359/BPEK359/BYOK359 CIE</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359 SEE</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359 Total</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359 Grade</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359 Grade Point</t>
-  </si>
-  <si>
     <t>BSCK307 CIE</t>
   </si>
   <si>
@@ -157,6 +142,21 @@
     <t>BSCK307 Grade Point</t>
   </si>
   <si>
+    <t>BNSK359/BPEK359/BYOK359/ CIE</t>
+  </si>
+  <si>
+    <t>BNSK359/BPEK359/BYOK359/ SEE</t>
+  </si>
+  <si>
+    <t>BNSK359/BPEK359/BYOK359/ Total</t>
+  </si>
+  <si>
+    <t>BNSK359/BPEK359/BYOK359/ Grade</t>
+  </si>
+  <si>
+    <t>BNSK359/BPEK359/BYOK359/ Grade Point</t>
+  </si>
+  <si>
     <t>SGPA</t>
   </si>
   <si>
@@ -166,27 +166,39 @@
     <t>Class</t>
   </si>
   <si>
-    <t>ABHIJNA NARAYAN NAYAK</t>
-  </si>
-  <si>
-    <t>4CB22CS002</t>
+    <t>ADITHI J RAO</t>
+  </si>
+  <si>
+    <t>AKARSH RAI B</t>
+  </si>
+  <si>
+    <t>4CB22CS003</t>
+  </si>
+  <si>
+    <t>4CB22CS004</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>B+</t>
   </si>
   <si>
-    <t>A+</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>O</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
+    <t>First Class</t>
+  </si>
+  <si>
     <t>BCS301</t>
   </si>
   <si>
@@ -208,7 +220,7 @@
     <t>BCSL305</t>
   </si>
   <si>
-    <t>BNSK359/BPEK359/BYOK359</t>
+    <t>BNSK359/BPEK359/BYOK359/</t>
   </si>
   <si>
     <t>BSCK307</t>
@@ -569,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX3"/>
+  <dimension ref="A1:AX4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,63 +595,63 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
@@ -659,139 +671,139 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AA2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="AC2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AF2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="AH2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AK2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="AM2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AP2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AQ2" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="AR2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
@@ -802,151 +814,303 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3">
+        <v>42</v>
+      </c>
+      <c r="D3">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>48</v>
+      </c>
+      <c r="I3">
+        <v>24</v>
+      </c>
+      <c r="J3">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>47</v>
+      </c>
+      <c r="N3">
+        <v>39</v>
+      </c>
+      <c r="O3">
+        <v>86</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="R3">
+        <v>43</v>
+      </c>
+      <c r="S3">
         <v>37</v>
       </c>
-      <c r="D3">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>39</v>
-      </c>
-      <c r="I3">
-        <v>22</v>
-      </c>
-      <c r="J3">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3">
-        <v>7</v>
-      </c>
-      <c r="M3">
-        <v>43</v>
-      </c>
-      <c r="N3">
-        <v>18</v>
-      </c>
-      <c r="O3">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3">
-        <v>7</v>
-      </c>
-      <c r="R3">
-        <v>37</v>
-      </c>
-      <c r="S3">
-        <v>27</v>
-      </c>
       <c r="T3">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W3">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="X3">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Y3">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AA3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB3">
+        <v>46</v>
+      </c>
+      <c r="AC3">
         <v>47</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
+        <v>93</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3">
+        <v>10</v>
+      </c>
+      <c r="AG3">
+        <v>36</v>
+      </c>
+      <c r="AH3">
         <v>38</v>
       </c>
-      <c r="AD3">
-        <v>85</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF3">
-        <v>9</v>
-      </c>
-      <c r="AG3">
-        <v>38</v>
-      </c>
-      <c r="AH3">
-        <v>39</v>
-      </c>
       <c r="AI3">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AK3">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="AO3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ3">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AR3">
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AT3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU3">
+        <v>9</v>
+      </c>
+      <c r="AV3">
+        <v>8.73</v>
+      </c>
+      <c r="AW3">
+        <v>79.77</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
         <v>55</v>
       </c>
-      <c r="AU3">
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>46</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <v>46</v>
+      </c>
+      <c r="N4">
+        <v>28</v>
+      </c>
+      <c r="O4">
+        <v>74</v>
+      </c>
+      <c r="P4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <v>43</v>
+      </c>
+      <c r="S4">
+        <v>35</v>
+      </c>
+      <c r="T4">
+        <v>78</v>
+      </c>
+      <c r="U4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4">
+        <v>8</v>
+      </c>
+      <c r="W4">
+        <v>41</v>
+      </c>
+      <c r="X4">
+        <v>27</v>
+      </c>
+      <c r="Y4">
+        <v>68</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA4">
+        <v>7</v>
+      </c>
+      <c r="AB4">
+        <v>40</v>
+      </c>
+      <c r="AC4">
+        <v>39</v>
+      </c>
+      <c r="AD4">
+        <v>79</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF4">
+        <v>8</v>
+      </c>
+      <c r="AG4">
+        <v>36</v>
+      </c>
+      <c r="AH4">
+        <v>44</v>
+      </c>
+      <c r="AI4">
+        <v>80</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK4">
+        <v>9</v>
+      </c>
+      <c r="AL4">
+        <v>90</v>
+      </c>
+      <c r="AM4">
         <v>0</v>
       </c>
-      <c r="AV3">
-        <v>6.16</v>
-      </c>
-      <c r="AW3">
-        <v>54.08</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>56</v>
+      <c r="AN4">
+        <v>90</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP4">
+        <v>10</v>
+      </c>
+      <c r="AQ4">
+        <v>87</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>87</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU4">
+        <v>9</v>
+      </c>
+      <c r="AV4">
+        <v>7.5</v>
+      </c>
+      <c r="AW4">
+        <v>67.5</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
   <si>
     <t>USN</t>
   </si>
@@ -127,6 +127,21 @@
     <t>BCSL305 Grade Point</t>
   </si>
   <si>
+    <t>BNSK359/BPEK359/BYOK359/ CIE</t>
+  </si>
+  <si>
+    <t>BNSK359/BPEK359/BYOK359/ SEE</t>
+  </si>
+  <si>
+    <t>BNSK359/BPEK359/BYOK359/ Total</t>
+  </si>
+  <si>
+    <t>BNSK359/BPEK359/BYOK359/ Grade</t>
+  </si>
+  <si>
+    <t>BNSK359/BPEK359/BYOK359/ Grade Point</t>
+  </si>
+  <si>
     <t>BSCK307 CIE</t>
   </si>
   <si>
@@ -142,21 +157,6 @@
     <t>BSCK307 Grade Point</t>
   </si>
   <si>
-    <t>BNSK359/BPEK359/BYOK359/ CIE</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359/ SEE</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359/ Total</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359/ Grade</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359/ Grade Point</t>
-  </si>
-  <si>
     <t>SGPA</t>
   </si>
   <si>
@@ -166,37 +166,64 @@
     <t>Class</t>
   </si>
   <si>
-    <t>ADITHI J RAO</t>
-  </si>
-  <si>
-    <t>AKARSH RAI B</t>
-  </si>
-  <si>
-    <t>4CB22CS003</t>
-  </si>
-  <si>
-    <t>4CB22CS004</t>
+    <t>AKASH H R</t>
+  </si>
+  <si>
+    <t>AMBIKA HEBBAR</t>
+  </si>
+  <si>
+    <t>AMRUTESH RAGHU GOWDA</t>
+  </si>
+  <si>
+    <t>ANANTHA</t>
+  </si>
+  <si>
+    <t>ANANYA KRISHNANAND NAIK</t>
+  </si>
+  <si>
+    <t>4CB22CS006</t>
+  </si>
+  <si>
+    <t>4CB22CS007</t>
+  </si>
+  <si>
+    <t>4CB22CS008</t>
+  </si>
+  <si>
+    <t>4CB22CS009</t>
+  </si>
+  <si>
+    <t>4CB22CS010</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
   <si>
     <t>A+</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>B+</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>O</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>First Class</t>
+    <t>Distinction</t>
   </si>
   <si>
     <t>BCS301</t>
@@ -581,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX4"/>
+  <dimension ref="A1:AX7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,63 +622,63 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
@@ -671,139 +698,139 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
@@ -814,151 +841,151 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>36</v>
+      </c>
+      <c r="I3">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>29</v>
+      </c>
+      <c r="N3">
+        <v>25</v>
+      </c>
+      <c r="O3">
+        <v>54</v>
+      </c>
+      <c r="P3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>27</v>
+      </c>
+      <c r="S3">
+        <v>14</v>
+      </c>
+      <c r="T3">
+        <v>41</v>
+      </c>
+      <c r="U3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>35</v>
+      </c>
+      <c r="X3">
+        <v>13</v>
+      </c>
+      <c r="Y3">
+        <v>48</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>36</v>
+      </c>
+      <c r="AC3">
+        <v>43</v>
+      </c>
+      <c r="AD3">
+        <v>79</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF3">
+        <v>8</v>
+      </c>
+      <c r="AG3">
+        <v>31</v>
+      </c>
+      <c r="AH3">
+        <v>22</v>
+      </c>
+      <c r="AI3">
+        <v>53</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK3">
+        <v>5</v>
+      </c>
+      <c r="AL3">
         <v>52</v>
-      </c>
-      <c r="C3">
-        <v>42</v>
-      </c>
-      <c r="D3">
-        <v>42</v>
-      </c>
-      <c r="E3">
-        <v>84</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
-      </c>
-      <c r="H3">
-        <v>48</v>
-      </c>
-      <c r="I3">
-        <v>24</v>
-      </c>
-      <c r="J3">
-        <v>72</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3">
-        <v>8</v>
-      </c>
-      <c r="M3">
-        <v>47</v>
-      </c>
-      <c r="N3">
-        <v>39</v>
-      </c>
-      <c r="O3">
-        <v>86</v>
-      </c>
-      <c r="P3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3">
-        <v>9</v>
-      </c>
-      <c r="R3">
-        <v>43</v>
-      </c>
-      <c r="S3">
-        <v>37</v>
-      </c>
-      <c r="T3">
-        <v>80</v>
-      </c>
-      <c r="U3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3">
-        <v>9</v>
-      </c>
-      <c r="W3">
-        <v>45</v>
-      </c>
-      <c r="X3">
-        <v>31</v>
-      </c>
-      <c r="Y3">
-        <v>76</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA3">
-        <v>8</v>
-      </c>
-      <c r="AB3">
-        <v>46</v>
-      </c>
-      <c r="AC3">
-        <v>47</v>
-      </c>
-      <c r="AD3">
-        <v>93</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF3">
-        <v>10</v>
-      </c>
-      <c r="AG3">
-        <v>36</v>
-      </c>
-      <c r="AH3">
-        <v>38</v>
-      </c>
-      <c r="AI3">
-        <v>74</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK3">
-        <v>8</v>
-      </c>
-      <c r="AL3">
-        <v>90</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="AO3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AP3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AQ3">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="AR3">
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="AT3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="AU3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV3">
-        <v>8.73</v>
+        <v>3.86</v>
       </c>
       <c r="AW3">
-        <v>79.77</v>
+        <v>31.14</v>
       </c>
       <c r="AX3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:50">
@@ -966,151 +993,607 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J4">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M4">
         <v>46</v>
       </c>
       <c r="N4">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O4">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>46</v>
+      </c>
+      <c r="S4">
+        <v>36</v>
+      </c>
+      <c r="T4">
+        <v>82</v>
+      </c>
+      <c r="U4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4">
+        <v>9</v>
+      </c>
+      <c r="W4">
+        <v>46</v>
+      </c>
+      <c r="X4">
+        <v>26</v>
+      </c>
+      <c r="Y4">
+        <v>72</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4">
         <v>8</v>
       </c>
-      <c r="R4">
-        <v>43</v>
-      </c>
-      <c r="S4">
-        <v>35</v>
-      </c>
-      <c r="T4">
-        <v>78</v>
-      </c>
-      <c r="U4" t="s">
-        <v>56</v>
-      </c>
-      <c r="V4">
-        <v>8</v>
-      </c>
-      <c r="W4">
-        <v>41</v>
-      </c>
-      <c r="X4">
-        <v>27</v>
-      </c>
-      <c r="Y4">
-        <v>68</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA4">
-        <v>7</v>
-      </c>
       <c r="AB4">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AC4">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AD4">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AE4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AF4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG4">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AH4">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AI4">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="AK4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL4">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AO4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AP4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ4">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AR4">
         <v>0</v>
       </c>
       <c r="AS4">
+        <v>93</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU4">
+        <v>10</v>
+      </c>
+      <c r="AV4">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AW4">
+        <v>77.05</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>46</v>
+      </c>
+      <c r="I5">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>46</v>
+      </c>
+      <c r="N5">
+        <v>28</v>
+      </c>
+      <c r="O5">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>35</v>
+      </c>
+      <c r="S5">
+        <v>23</v>
+      </c>
+      <c r="T5">
+        <v>58</v>
+      </c>
+      <c r="U5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>45</v>
+      </c>
+      <c r="X5">
+        <v>30</v>
+      </c>
+      <c r="Y5">
+        <v>75</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA5">
+        <v>8</v>
+      </c>
+      <c r="AB5">
+        <v>46</v>
+      </c>
+      <c r="AC5">
+        <v>46</v>
+      </c>
+      <c r="AD5">
+        <v>92</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF5">
+        <v>10</v>
+      </c>
+      <c r="AG5">
+        <v>43</v>
+      </c>
+      <c r="AH5">
+        <v>47</v>
+      </c>
+      <c r="AI5">
+        <v>90</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK5">
+        <v>10</v>
+      </c>
+      <c r="AL5">
+        <v>52</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>52</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP5">
+        <v>5</v>
+      </c>
+      <c r="AQ5">
+        <v>92</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>92</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU5">
+        <v>10</v>
+      </c>
+      <c r="AV5">
+        <v>7.86</v>
+      </c>
+      <c r="AW5">
+        <v>71.14</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>46</v>
+      </c>
+      <c r="I6">
+        <v>29</v>
+      </c>
+      <c r="J6">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>47</v>
+      </c>
+      <c r="N6">
+        <v>18</v>
+      </c>
+      <c r="O6">
+        <v>65</v>
+      </c>
+      <c r="P6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>35</v>
+      </c>
+      <c r="S6">
+        <v>34</v>
+      </c>
+      <c r="T6">
+        <v>69</v>
+      </c>
+      <c r="U6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>43</v>
+      </c>
+      <c r="X6">
+        <v>34</v>
+      </c>
+      <c r="Y6">
+        <v>77</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA6">
+        <v>8</v>
+      </c>
+      <c r="AB6">
+        <v>48</v>
+      </c>
+      <c r="AC6">
+        <v>44</v>
+      </c>
+      <c r="AD6">
+        <v>92</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF6">
+        <v>10</v>
+      </c>
+      <c r="AG6">
+        <v>40</v>
+      </c>
+      <c r="AH6">
+        <v>28</v>
+      </c>
+      <c r="AI6">
+        <v>68</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK6">
+        <v>7</v>
+      </c>
+      <c r="AL6">
         <v>87</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>87</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP6">
+        <v>9</v>
+      </c>
+      <c r="AQ6">
+        <v>85</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>85</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU6">
+        <v>9</v>
+      </c>
+      <c r="AV6">
+        <v>8</v>
+      </c>
+      <c r="AW6">
+        <v>72.5</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50">
+      <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="AU4">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>41</v>
+      </c>
+      <c r="I7">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>69</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>43</v>
+      </c>
+      <c r="N7">
+        <v>38</v>
+      </c>
+      <c r="O7">
+        <v>81</v>
+      </c>
+      <c r="P7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7">
         <v>9</v>
       </c>
-      <c r="AV4">
-        <v>7.5</v>
-      </c>
-      <c r="AW4">
-        <v>67.5</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>60</v>
+      <c r="R7">
+        <v>32</v>
+      </c>
+      <c r="S7">
+        <v>35</v>
+      </c>
+      <c r="T7">
+        <v>67</v>
+      </c>
+      <c r="U7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7">
+        <v>7</v>
+      </c>
+      <c r="W7">
+        <v>43</v>
+      </c>
+      <c r="X7">
+        <v>37</v>
+      </c>
+      <c r="Y7">
+        <v>80</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA7">
+        <v>9</v>
+      </c>
+      <c r="AB7">
+        <v>38</v>
+      </c>
+      <c r="AC7">
+        <v>45</v>
+      </c>
+      <c r="AD7">
+        <v>83</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF7">
+        <v>9</v>
+      </c>
+      <c r="AG7">
+        <v>34</v>
+      </c>
+      <c r="AH7">
+        <v>29</v>
+      </c>
+      <c r="AI7">
+        <v>63</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK7">
+        <v>7</v>
+      </c>
+      <c r="AL7">
+        <v>64</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>64</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP7">
+        <v>7</v>
+      </c>
+      <c r="AQ7">
+        <v>94</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>94</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU7">
+        <v>10</v>
+      </c>
+      <c r="AV7">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="AW7">
+        <v>72.95</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="89">
   <si>
     <t>USN</t>
   </si>
@@ -127,19 +127,19 @@
     <t>BCSL305 Grade Point</t>
   </si>
   <si>
-    <t>BNSK359/BPEK359/BYOK359/ CIE</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359/ SEE</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359/ Total</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359/ Grade</t>
-  </si>
-  <si>
-    <t>BNSK359/BPEK359/BYOK359/ Grade Point</t>
+    <t>BNSK359/BPEK359/BYOK359 CIE</t>
+  </si>
+  <si>
+    <t>BNSK359/BPEK359/BYOK359 SEE</t>
+  </si>
+  <si>
+    <t>BNSK359/BPEK359/BYOK359 Total</t>
+  </si>
+  <si>
+    <t>BNSK359/BPEK359/BYOK359 Grade</t>
+  </si>
+  <si>
+    <t>BNSK359/BPEK359/BYOK359 Grade Point</t>
   </si>
   <si>
     <t>BSCK307 CIE</t>
@@ -166,6 +166,18 @@
     <t>Class</t>
   </si>
   <si>
+    <t>ABHIJNA NARAYAN NAYAK</t>
+  </si>
+  <si>
+    <t>ADITHI J RAO</t>
+  </si>
+  <si>
+    <t>AKARSH RAI B</t>
+  </si>
+  <si>
+    <t>AKASH D SHENVI</t>
+  </si>
+  <si>
     <t>AKASH H R</t>
   </si>
   <si>
@@ -175,10 +187,16 @@
     <t>AMRUTESH RAGHU GOWDA</t>
   </si>
   <si>
-    <t>ANANTHA</t>
-  </si>
-  <si>
-    <t>ANANYA KRISHNANAND NAIK</t>
+    <t>4CB22CS002</t>
+  </si>
+  <si>
+    <t>4CB22CS003</t>
+  </si>
+  <si>
+    <t>4CB22CS004</t>
+  </si>
+  <si>
+    <t>4CB22CS005</t>
   </si>
   <si>
     <t>4CB22CS006</t>
@@ -190,27 +208,21 @@
     <t>4CB22CS008</t>
   </si>
   <si>
-    <t>4CB22CS009</t>
-  </si>
-  <si>
-    <t>4CB22CS010</t>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t>A+</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -220,12 +232,15 @@
     <t>O</t>
   </si>
   <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Distinction</t>
+  </si>
+  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Distinction</t>
-  </si>
-  <si>
     <t>BCS301</t>
   </si>
   <si>
@@ -247,7 +262,7 @@
     <t>BCSL305</t>
   </si>
   <si>
-    <t>BNSK359/BPEK359/BYOK359/</t>
+    <t>BNSK359/BPEK359/BYOK359</t>
   </si>
   <si>
     <t>BSCK307</t>
@@ -608,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX7"/>
+  <dimension ref="A1:AX9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,63 +637,63 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
@@ -698,139 +713,139 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
@@ -841,151 +856,151 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>22</v>
       </c>
       <c r="J3">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N3">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O3">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>37</v>
+      </c>
+      <c r="S3">
+        <v>27</v>
+      </c>
+      <c r="T3">
+        <v>64</v>
+      </c>
+      <c r="U3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>41</v>
+      </c>
+      <c r="X3">
+        <v>27</v>
+      </c>
+      <c r="Y3">
+        <v>68</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA3">
+        <v>7</v>
+      </c>
+      <c r="AB3">
+        <v>47</v>
+      </c>
+      <c r="AC3">
+        <v>38</v>
+      </c>
+      <c r="AD3">
+        <v>85</v>
+      </c>
+      <c r="AE3" t="s">
         <v>65</v>
       </c>
-      <c r="Q3">
-        <v>5</v>
-      </c>
-      <c r="R3">
-        <v>27</v>
-      </c>
-      <c r="S3">
-        <v>14</v>
-      </c>
-      <c r="T3">
-        <v>41</v>
-      </c>
-      <c r="U3" t="s">
-        <v>66</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>35</v>
-      </c>
-      <c r="X3">
-        <v>13</v>
-      </c>
-      <c r="Y3">
-        <v>48</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>36</v>
-      </c>
-      <c r="AC3">
-        <v>43</v>
-      </c>
-      <c r="AD3">
-        <v>79</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>62</v>
-      </c>
       <c r="AF3">
+        <v>9</v>
+      </c>
+      <c r="AG3">
+        <v>38</v>
+      </c>
+      <c r="AH3">
+        <v>39</v>
+      </c>
+      <c r="AI3">
+        <v>77</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK3">
         <v>8</v>
       </c>
-      <c r="AG3">
-        <v>31</v>
-      </c>
-      <c r="AH3">
-        <v>22</v>
-      </c>
-      <c r="AI3">
-        <v>53</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK3">
-        <v>5</v>
-      </c>
       <c r="AL3">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="AO3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AP3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AQ3">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="AR3">
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="AT3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AU3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV3">
-        <v>3.86</v>
+        <v>7.29</v>
       </c>
       <c r="AW3">
-        <v>31.14</v>
+        <v>65.36</v>
       </c>
       <c r="AX3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:50">
@@ -993,112 +1008,112 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G4">
         <v>9</v>
       </c>
       <c r="H4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J4">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L4">
         <v>8</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N4">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="O4">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R4">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T4">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="V4">
         <v>9</v>
       </c>
       <c r="W4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X4">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Y4">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AA4">
         <v>8</v>
       </c>
       <c r="AB4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC4">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD4">
         <v>93</v>
       </c>
       <c r="AE4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AF4">
         <v>10</v>
       </c>
       <c r="AG4">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AH4">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AI4">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL4">
         <v>85</v>
@@ -1110,34 +1125,34 @@
         <v>85</v>
       </c>
       <c r="AO4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AP4">
         <v>9</v>
       </c>
       <c r="AQ4">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AR4">
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AT4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AU4">
         <v>10</v>
       </c>
       <c r="AV4">
-        <v>8.449999999999999</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="AW4">
-        <v>77.05</v>
+        <v>79.64</v>
       </c>
       <c r="AX4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:50">
@@ -1145,37 +1160,37 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>46</v>
       </c>
       <c r="I5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J5">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M5">
         <v>46</v>
@@ -1187,109 +1202,109 @@
         <v>74</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="Q5">
         <v>8</v>
       </c>
       <c r="R5">
+        <v>43</v>
+      </c>
+      <c r="S5">
         <v>35</v>
       </c>
-      <c r="S5">
-        <v>23</v>
-      </c>
       <c r="T5">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W5">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y5">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Z5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AA5">
+        <v>7</v>
+      </c>
+      <c r="AB5">
+        <v>40</v>
+      </c>
+      <c r="AC5">
+        <v>39</v>
+      </c>
+      <c r="AD5">
+        <v>79</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF5">
         <v>8</v>
       </c>
-      <c r="AB5">
-        <v>46</v>
-      </c>
-      <c r="AC5">
-        <v>46</v>
-      </c>
-      <c r="AD5">
-        <v>92</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF5">
-        <v>10</v>
-      </c>
       <c r="AG5">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="AH5">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AI5">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AK5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL5">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AO5" t="s">
         <v>65</v>
       </c>
       <c r="AP5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AQ5">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AR5">
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AT5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AU5">
         <v>10</v>
       </c>
       <c r="AV5">
-        <v>7.86</v>
+        <v>7.43</v>
       </c>
       <c r="AW5">
-        <v>71.14</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="AX5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:50">
@@ -1297,43 +1312,43 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>47</v>
+      </c>
+      <c r="I6">
+        <v>36</v>
+      </c>
+      <c r="J6">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6">
         <v>9</v>
       </c>
-      <c r="H6">
-        <v>46</v>
-      </c>
-      <c r="I6">
-        <v>29</v>
-      </c>
-      <c r="J6">
-        <v>75</v>
-      </c>
-      <c r="K6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6">
-        <v>8</v>
-      </c>
       <c r="M6">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O6">
         <v>65</v>
@@ -1345,13 +1360,13 @@
         <v>7</v>
       </c>
       <c r="R6">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="S6">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T6">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
         <v>64</v>
@@ -1360,88 +1375,88 @@
         <v>7</v>
       </c>
       <c r="W6">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="X6">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Y6">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="Z6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AA6">
+        <v>7</v>
+      </c>
+      <c r="AB6">
+        <v>37</v>
+      </c>
+      <c r="AC6">
+        <v>41</v>
+      </c>
+      <c r="AD6">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF6">
         <v>8</v>
       </c>
-      <c r="AB6">
+      <c r="AG6">
+        <v>39</v>
+      </c>
+      <c r="AH6">
         <v>48</v>
       </c>
-      <c r="AC6">
-        <v>44</v>
-      </c>
-      <c r="AD6">
-        <v>92</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF6">
-        <v>10</v>
-      </c>
-      <c r="AG6">
-        <v>40</v>
-      </c>
-      <c r="AH6">
-        <v>28</v>
-      </c>
       <c r="AI6">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="AJ6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL6">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AO6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AP6">
         <v>9</v>
       </c>
       <c r="AQ6">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AR6">
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AT6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="AU6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV6">
-        <v>8</v>
+        <v>7.67</v>
       </c>
       <c r="AW6">
-        <v>72.5</v>
+        <v>69.17</v>
       </c>
       <c r="AX6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:50">
@@ -1449,151 +1464,455 @@
         <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>29</v>
+      </c>
+      <c r="N7">
+        <v>25</v>
+      </c>
+      <c r="O7">
+        <v>54</v>
+      </c>
+      <c r="P7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>27</v>
+      </c>
+      <c r="S7">
+        <v>14</v>
+      </c>
+      <c r="T7">
+        <v>41</v>
+      </c>
+      <c r="U7" t="s">
+        <v>70</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>35</v>
+      </c>
+      <c r="X7">
+        <v>13</v>
+      </c>
+      <c r="Y7">
+        <v>48</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>36</v>
+      </c>
+      <c r="AC7">
+        <v>43</v>
+      </c>
+      <c r="AD7">
+        <v>79</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF7">
         <v>8</v>
       </c>
-      <c r="H7">
-        <v>41</v>
-      </c>
-      <c r="I7">
-        <v>28</v>
-      </c>
-      <c r="J7">
+      <c r="AG7">
+        <v>31</v>
+      </c>
+      <c r="AH7">
+        <v>22</v>
+      </c>
+      <c r="AI7">
+        <v>53</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>69</v>
       </c>
-      <c r="K7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7">
-        <v>7</v>
-      </c>
-      <c r="M7">
-        <v>43</v>
-      </c>
-      <c r="N7">
-        <v>38</v>
-      </c>
-      <c r="O7">
-        <v>81</v>
-      </c>
-      <c r="P7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q7">
-        <v>9</v>
-      </c>
-      <c r="R7">
-        <v>32</v>
-      </c>
-      <c r="S7">
-        <v>35</v>
-      </c>
-      <c r="T7">
-        <v>67</v>
-      </c>
-      <c r="U7" t="s">
-        <v>64</v>
-      </c>
-      <c r="V7">
-        <v>7</v>
-      </c>
-      <c r="W7">
-        <v>43</v>
-      </c>
-      <c r="X7">
-        <v>37</v>
-      </c>
-      <c r="Y7">
-        <v>80</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA7">
-        <v>9</v>
-      </c>
-      <c r="AB7">
-        <v>38</v>
-      </c>
-      <c r="AC7">
-        <v>45</v>
-      </c>
-      <c r="AD7">
-        <v>83</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF7">
-        <v>9</v>
-      </c>
-      <c r="AG7">
-        <v>34</v>
-      </c>
-      <c r="AH7">
-        <v>29</v>
-      </c>
-      <c r="AI7">
-        <v>63</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>64</v>
-      </c>
       <c r="AK7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AL7">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="AM7">
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="AO7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AP7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AQ7">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="AR7">
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="AT7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU7">
+        <v>7</v>
+      </c>
+      <c r="AV7">
+        <v>3.81</v>
+      </c>
+      <c r="AW7">
+        <v>30.6</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>47</v>
+      </c>
+      <c r="I8">
+        <v>27</v>
+      </c>
+      <c r="J8">
+        <v>74</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>46</v>
+      </c>
+      <c r="N8">
+        <v>21</v>
+      </c>
+      <c r="O8">
         <v>67</v>
       </c>
-      <c r="AU7">
+      <c r="P8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>46</v>
+      </c>
+      <c r="S8">
+        <v>36</v>
+      </c>
+      <c r="T8">
+        <v>82</v>
+      </c>
+      <c r="U8" t="s">
+        <v>65</v>
+      </c>
+      <c r="V8">
+        <v>9</v>
+      </c>
+      <c r="W8">
+        <v>46</v>
+      </c>
+      <c r="X8">
+        <v>26</v>
+      </c>
+      <c r="Y8">
+        <v>72</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA8">
+        <v>8</v>
+      </c>
+      <c r="AB8">
+        <v>44</v>
+      </c>
+      <c r="AC8">
+        <v>49</v>
+      </c>
+      <c r="AD8">
+        <v>93</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF8">
         <v>10</v>
       </c>
-      <c r="AV7">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="AW7">
-        <v>72.95</v>
-      </c>
-      <c r="AX7" t="s">
+      <c r="AG8">
+        <v>44</v>
+      </c>
+      <c r="AH8">
+        <v>49</v>
+      </c>
+      <c r="AI8">
+        <v>93</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK8">
+        <v>10</v>
+      </c>
+      <c r="AL8">
+        <v>85</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>85</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP8">
+        <v>9</v>
+      </c>
+      <c r="AQ8">
+        <v>93</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>93</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU8">
+        <v>10</v>
+      </c>
+      <c r="AV8">
+        <v>8.43</v>
+      </c>
+      <c r="AW8">
+        <v>76.79000000000001</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
         <v>68</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <v>31</v>
+      </c>
+      <c r="J9">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>46</v>
+      </c>
+      <c r="N9">
+        <v>28</v>
+      </c>
+      <c r="O9">
+        <v>74</v>
+      </c>
+      <c r="P9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>35</v>
+      </c>
+      <c r="S9">
+        <v>23</v>
+      </c>
+      <c r="T9">
+        <v>58</v>
+      </c>
+      <c r="U9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>45</v>
+      </c>
+      <c r="X9">
+        <v>30</v>
+      </c>
+      <c r="Y9">
+        <v>75</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA9">
+        <v>8</v>
+      </c>
+      <c r="AB9">
+        <v>46</v>
+      </c>
+      <c r="AC9">
+        <v>46</v>
+      </c>
+      <c r="AD9">
+        <v>92</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF9">
+        <v>10</v>
+      </c>
+      <c r="AG9">
+        <v>43</v>
+      </c>
+      <c r="AH9">
+        <v>47</v>
+      </c>
+      <c r="AI9">
+        <v>90</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK9">
+        <v>10</v>
+      </c>
+      <c r="AL9">
+        <v>52</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>52</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP9">
+        <v>5</v>
+      </c>
+      <c r="AQ9">
+        <v>92</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>92</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU9">
+        <v>10</v>
+      </c>
+      <c r="AV9">
+        <v>8</v>
+      </c>
+      <c r="AW9">
+        <v>72.5</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="83">
   <si>
     <t>USN</t>
   </si>
@@ -166,12 +166,6 @@
     <t>Class</t>
   </si>
   <si>
-    <t>ABHIJNA NARAYAN NAYAK</t>
-  </si>
-  <si>
-    <t>ADITHI J RAO</t>
-  </si>
-  <si>
     <t>AKARSH RAI B</t>
   </si>
   <si>
@@ -184,15 +178,6 @@
     <t>AMBIKA HEBBAR</t>
   </si>
   <si>
-    <t>AMRUTESH RAGHU GOWDA</t>
-  </si>
-  <si>
-    <t>4CB22CS002</t>
-  </si>
-  <si>
-    <t>4CB22CS003</t>
-  </si>
-  <si>
     <t>4CB22CS004</t>
   </si>
   <si>
@@ -205,21 +190,18 @@
     <t>4CB22CS007</t>
   </si>
   <si>
-    <t>4CB22CS008</t>
+    <t>B</t>
   </si>
   <si>
     <t>B+</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>A+</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -235,10 +217,10 @@
     <t>First Class</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>Distinction</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>BCS301</t>
@@ -623,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX9"/>
+  <dimension ref="A1:AX6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,63 +619,63 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
@@ -713,139 +695,139 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
@@ -856,67 +838,67 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J3">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L3">
         <v>7</v>
       </c>
       <c r="M3">
+        <v>46</v>
+      </c>
+      <c r="N3">
+        <v>28</v>
+      </c>
+      <c r="O3">
+        <v>74</v>
+      </c>
+      <c r="P3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3">
+        <v>8</v>
+      </c>
+      <c r="R3">
         <v>43</v>
       </c>
-      <c r="N3">
-        <v>18</v>
-      </c>
-      <c r="O3">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3">
-        <v>7</v>
-      </c>
-      <c r="R3">
-        <v>37</v>
-      </c>
       <c r="S3">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="T3">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W3">
         <v>41</v>
@@ -928,79 +910,79 @@
         <v>68</v>
       </c>
       <c r="Z3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AA3">
         <v>7</v>
       </c>
       <c r="AB3">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AC3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD3">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AF3">
+        <v>8</v>
+      </c>
+      <c r="AG3">
+        <v>36</v>
+      </c>
+      <c r="AH3">
+        <v>44</v>
+      </c>
+      <c r="AI3">
+        <v>80</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK3">
         <v>9</v>
       </c>
-      <c r="AG3">
-        <v>38</v>
-      </c>
-      <c r="AH3">
-        <v>39</v>
-      </c>
-      <c r="AI3">
-        <v>77</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK3">
-        <v>8</v>
-      </c>
       <c r="AL3">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AO3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AP3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AR3">
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AT3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AU3">
         <v>10</v>
       </c>
       <c r="AV3">
-        <v>7.29</v>
+        <v>7.43</v>
       </c>
       <c r="AW3">
-        <v>65.36</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="AX3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:50">
@@ -1008,124 +990,124 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>47</v>
+      </c>
+      <c r="I4">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <v>83</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>45</v>
+      </c>
+      <c r="N4">
+        <v>20</v>
+      </c>
+      <c r="O4">
         <v>65</v>
       </c>
-      <c r="G4">
+      <c r="P4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>41</v>
+      </c>
+      <c r="S4">
+        <v>19</v>
+      </c>
+      <c r="T4">
+        <v>60</v>
+      </c>
+      <c r="U4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4">
+        <v>7</v>
+      </c>
+      <c r="W4">
+        <v>40</v>
+      </c>
+      <c r="X4">
+        <v>25</v>
+      </c>
+      <c r="Y4">
+        <v>65</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA4">
+        <v>7</v>
+      </c>
+      <c r="AB4">
+        <v>37</v>
+      </c>
+      <c r="AC4">
+        <v>41</v>
+      </c>
+      <c r="AD4">
+        <v>78</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF4">
+        <v>8</v>
+      </c>
+      <c r="AG4">
+        <v>39</v>
+      </c>
+      <c r="AH4">
+        <v>48</v>
+      </c>
+      <c r="AI4">
+        <v>87</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK4">
         <v>9</v>
       </c>
-      <c r="H4">
-        <v>48</v>
-      </c>
-      <c r="I4">
-        <v>24</v>
-      </c>
-      <c r="J4">
-        <v>72</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="M4">
-        <v>47</v>
-      </c>
-      <c r="N4">
-        <v>39</v>
-      </c>
-      <c r="O4">
-        <v>86</v>
-      </c>
-      <c r="P4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q4">
-        <v>9</v>
-      </c>
-      <c r="R4">
-        <v>43</v>
-      </c>
-      <c r="S4">
-        <v>37</v>
-      </c>
-      <c r="T4">
+      <c r="AL4">
         <v>80</v>
-      </c>
-      <c r="U4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V4">
-        <v>9</v>
-      </c>
-      <c r="W4">
-        <v>45</v>
-      </c>
-      <c r="X4">
-        <v>31</v>
-      </c>
-      <c r="Y4">
-        <v>76</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA4">
-        <v>8</v>
-      </c>
-      <c r="AB4">
-        <v>46</v>
-      </c>
-      <c r="AC4">
-        <v>47</v>
-      </c>
-      <c r="AD4">
-        <v>93</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF4">
-        <v>10</v>
-      </c>
-      <c r="AG4">
-        <v>36</v>
-      </c>
-      <c r="AH4">
-        <v>38</v>
-      </c>
-      <c r="AI4">
-        <v>74</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK4">
-        <v>8</v>
-      </c>
-      <c r="AL4">
-        <v>85</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AP4">
         <v>9</v>
@@ -1140,19 +1122,19 @@
         <v>90</v>
       </c>
       <c r="AT4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AU4">
         <v>10</v>
       </c>
       <c r="AV4">
-        <v>8.710000000000001</v>
+        <v>7.67</v>
       </c>
       <c r="AW4">
-        <v>79.64</v>
+        <v>69.17</v>
       </c>
       <c r="AX4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:50">
@@ -1160,151 +1142,151 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>36</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>29</v>
+      </c>
+      <c r="N5">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>46</v>
-      </c>
-      <c r="I5">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <v>66</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="O5">
+        <v>54</v>
+      </c>
+      <c r="P5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>27</v>
+      </c>
+      <c r="S5">
+        <v>14</v>
+      </c>
+      <c r="T5">
+        <v>41</v>
+      </c>
+      <c r="U5" t="s">
         <v>64</v>
       </c>
-      <c r="L5">
-        <v>7</v>
-      </c>
-      <c r="M5">
-        <v>46</v>
-      </c>
-      <c r="N5">
-        <v>28</v>
-      </c>
-      <c r="O5">
-        <v>74</v>
-      </c>
-      <c r="P5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5">
-        <v>8</v>
-      </c>
-      <c r="R5">
-        <v>43</v>
-      </c>
-      <c r="S5">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>35</v>
       </c>
-      <c r="T5">
-        <v>78</v>
-      </c>
-      <c r="U5" t="s">
-        <v>68</v>
-      </c>
-      <c r="V5">
-        <v>8</v>
-      </c>
-      <c r="W5">
-        <v>41</v>
-      </c>
       <c r="X5">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Y5">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="Z5" t="s">
         <v>64</v>
       </c>
       <c r="AA5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AC5">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AD5">
         <v>79</v>
       </c>
       <c r="AE5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AF5">
         <v>8</v>
       </c>
       <c r="AG5">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AH5">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="AI5">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="AJ5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AK5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AL5">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="AO5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AP5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AQ5">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="AR5">
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="AT5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="AU5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV5">
-        <v>7.43</v>
+        <v>3.81</v>
       </c>
       <c r="AW5">
-        <v>66.79000000000001</v>
+        <v>30.6</v>
       </c>
       <c r="AX5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:50">
@@ -1312,607 +1294,151 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>47</v>
       </c>
       <c r="I6">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J6">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O6">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q6">
         <v>7</v>
       </c>
       <c r="R6">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="S6">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="T6">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="U6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W6">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="X6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y6">
+        <v>72</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA6">
+        <v>8</v>
+      </c>
+      <c r="AB6">
+        <v>44</v>
+      </c>
+      <c r="AC6">
+        <v>49</v>
+      </c>
+      <c r="AD6">
+        <v>93</v>
+      </c>
+      <c r="AE6" t="s">
         <v>65</v>
       </c>
-      <c r="Z6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA6">
-        <v>7</v>
-      </c>
-      <c r="AB6">
-        <v>37</v>
-      </c>
-      <c r="AC6">
-        <v>41</v>
-      </c>
-      <c r="AD6">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>68</v>
-      </c>
       <c r="AF6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG6">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AH6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AJ6" t="s">
         <v>65</v>
       </c>
       <c r="AK6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL6">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AP6">
         <v>9</v>
       </c>
       <c r="AQ6">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AR6">
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AT6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AU6">
         <v>10</v>
       </c>
       <c r="AV6">
-        <v>7.67</v>
+        <v>8.43</v>
       </c>
       <c r="AW6">
-        <v>69.17</v>
+        <v>76.79000000000001</v>
       </c>
       <c r="AX6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>36</v>
-      </c>
-      <c r="I7">
-        <v>22</v>
-      </c>
-      <c r="J7">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <v>29</v>
-      </c>
-      <c r="N7">
-        <v>25</v>
-      </c>
-      <c r="O7">
-        <v>54</v>
-      </c>
-      <c r="P7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q7">
-        <v>5</v>
-      </c>
-      <c r="R7">
-        <v>27</v>
-      </c>
-      <c r="S7">
-        <v>14</v>
-      </c>
-      <c r="T7">
-        <v>41</v>
-      </c>
-      <c r="U7" t="s">
-        <v>70</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>35</v>
-      </c>
-      <c r="X7">
-        <v>13</v>
-      </c>
-      <c r="Y7">
-        <v>48</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>36</v>
-      </c>
-      <c r="AC7">
-        <v>43</v>
-      </c>
-      <c r="AD7">
-        <v>79</v>
-      </c>
-      <c r="AE7" t="s">
         <v>68</v>
-      </c>
-      <c r="AF7">
-        <v>8</v>
-      </c>
-      <c r="AG7">
-        <v>31</v>
-      </c>
-      <c r="AH7">
-        <v>22</v>
-      </c>
-      <c r="AI7">
-        <v>53</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK7">
-        <v>5</v>
-      </c>
-      <c r="AL7">
-        <v>52</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>52</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP7">
-        <v>5</v>
-      </c>
-      <c r="AQ7">
-        <v>62</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>62</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU7">
-        <v>7</v>
-      </c>
-      <c r="AV7">
-        <v>3.81</v>
-      </c>
-      <c r="AW7">
-        <v>30.6</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8">
-        <v>46</v>
-      </c>
-      <c r="D8">
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>86</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8">
-        <v>9</v>
-      </c>
-      <c r="H8">
-        <v>47</v>
-      </c>
-      <c r="I8">
-        <v>27</v>
-      </c>
-      <c r="J8">
-        <v>74</v>
-      </c>
-      <c r="K8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8">
-        <v>8</v>
-      </c>
-      <c r="M8">
-        <v>46</v>
-      </c>
-      <c r="N8">
-        <v>21</v>
-      </c>
-      <c r="O8">
-        <v>67</v>
-      </c>
-      <c r="P8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8">
-        <v>7</v>
-      </c>
-      <c r="R8">
-        <v>46</v>
-      </c>
-      <c r="S8">
-        <v>36</v>
-      </c>
-      <c r="T8">
-        <v>82</v>
-      </c>
-      <c r="U8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V8">
-        <v>9</v>
-      </c>
-      <c r="W8">
-        <v>46</v>
-      </c>
-      <c r="X8">
-        <v>26</v>
-      </c>
-      <c r="Y8">
-        <v>72</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA8">
-        <v>8</v>
-      </c>
-      <c r="AB8">
-        <v>44</v>
-      </c>
-      <c r="AC8">
-        <v>49</v>
-      </c>
-      <c r="AD8">
-        <v>93</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF8">
-        <v>10</v>
-      </c>
-      <c r="AG8">
-        <v>44</v>
-      </c>
-      <c r="AH8">
-        <v>49</v>
-      </c>
-      <c r="AI8">
-        <v>93</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK8">
-        <v>10</v>
-      </c>
-      <c r="AL8">
-        <v>85</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>85</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP8">
-        <v>9</v>
-      </c>
-      <c r="AQ8">
-        <v>93</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>93</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU8">
-        <v>10</v>
-      </c>
-      <c r="AV8">
-        <v>8.43</v>
-      </c>
-      <c r="AW8">
-        <v>76.79000000000001</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9">
-        <v>40</v>
-      </c>
-      <c r="D9">
-        <v>31</v>
-      </c>
-      <c r="E9">
-        <v>71</v>
-      </c>
-      <c r="F9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>46</v>
-      </c>
-      <c r="I9">
-        <v>31</v>
-      </c>
-      <c r="J9">
-        <v>77</v>
-      </c>
-      <c r="K9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9">
-        <v>8</v>
-      </c>
-      <c r="M9">
-        <v>46</v>
-      </c>
-      <c r="N9">
-        <v>28</v>
-      </c>
-      <c r="O9">
-        <v>74</v>
-      </c>
-      <c r="P9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
-      </c>
-      <c r="R9">
-        <v>35</v>
-      </c>
-      <c r="S9">
-        <v>23</v>
-      </c>
-      <c r="T9">
-        <v>58</v>
-      </c>
-      <c r="U9" t="s">
-        <v>66</v>
-      </c>
-      <c r="V9">
-        <v>6</v>
-      </c>
-      <c r="W9">
-        <v>45</v>
-      </c>
-      <c r="X9">
-        <v>30</v>
-      </c>
-      <c r="Y9">
-        <v>75</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA9">
-        <v>8</v>
-      </c>
-      <c r="AB9">
-        <v>46</v>
-      </c>
-      <c r="AC9">
-        <v>46</v>
-      </c>
-      <c r="AD9">
-        <v>92</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF9">
-        <v>10</v>
-      </c>
-      <c r="AG9">
-        <v>43</v>
-      </c>
-      <c r="AH9">
-        <v>47</v>
-      </c>
-      <c r="AI9">
-        <v>90</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK9">
-        <v>10</v>
-      </c>
-      <c r="AL9">
-        <v>52</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>52</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP9">
-        <v>5</v>
-      </c>
-      <c r="AQ9">
-        <v>92</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>92</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU9">
-        <v>10</v>
-      </c>
-      <c r="AV9">
-        <v>8</v>
-      </c>
-      <c r="AW9">
-        <v>72.5</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
